--- a/Production/Microcontroller_interfacing_BOM.xlsx
+++ b/Production/Microcontroller_interfacing_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\2 Design Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4082895B-F111-43A8-BBC3-46DCDFB3807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACAA035-29B1-4E65-81C7-9E46DFD93CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Above is using first option</t>
+  </si>
+  <si>
+    <t>Not accounted for are resistors, capacitors and diodes which are cheap</t>
   </si>
 </sst>
 </file>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1B5A-A6A6-488D-B415-41EF40D19B5A}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,6 +815,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:F2"/>

--- a/Production/Microcontroller_interfacing_BOM.xlsx
+++ b/Production/Microcontroller_interfacing_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\2 Design Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACAA035-29B1-4E65-81C7-9E46DFD93CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC634AC-570A-4882-973F-7517802059AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -158,13 +158,40 @@
     <t>Total anticipated</t>
   </si>
   <si>
-    <t>±$6.5739</t>
-  </si>
-  <si>
     <t>Above is using first option</t>
   </si>
   <si>
     <t>Not accounted for are resistors, capacitors and diodes which are cheap</t>
+  </si>
+  <si>
+    <t>USB serial interface</t>
+  </si>
+  <si>
+    <t>Transceiver 2Mbps USB 2.0 SOP-16_150mil USB ICs ROHS</t>
+  </si>
+  <si>
+    <t>C14267</t>
+  </si>
+  <si>
+    <t>$0.6029</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>12Mhz</t>
+  </si>
+  <si>
+    <t>12MHz 49S Crystals 20pF ±20ppm -20℃~+70℃ HC-49S Crystals ROHS</t>
+  </si>
+  <si>
+    <t>C258979</t>
+  </si>
+  <si>
+    <t>$0.1137</t>
+  </si>
+  <si>
+    <t>±$2.4210</t>
   </si>
 </sst>
 </file>
@@ -245,9 +272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -258,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1B5A-A6A6-488D-B415-41EF40D19B5A}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,50 +640,50 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -669,165 +696,216 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://lcsc.com/product-detail/USB-ICs_FTDI-FT232HL-REEL_C51997.html" xr:uid="{FA8A2DB9-B18F-4643-B4DA-893E6AF2010A}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://lcsc.com/product-detail/USB-ICs_FTDI-FT232HL-REEL_C51997.html" xr:uid="{FA8A2DB9-B18F-4643-B4DA-893E6AF2010A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Production/Microcontroller_interfacing_BOM.xlsx
+++ b/Production/Microcontroller_interfacing_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\2 Design Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC634AC-570A-4882-973F-7517802059AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F04B54-CFE8-4FB6-80C1-EC442DDF000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
   </bookViews>
@@ -179,19 +179,19 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>12Mhz</t>
-  </si>
-  <si>
-    <t>12MHz 49S Crystals 20pF ±20ppm -20℃~+70℃ HC-49S Crystals ROHS</t>
-  </si>
-  <si>
-    <t>C258979</t>
-  </si>
-  <si>
-    <t>$0.1137</t>
-  </si>
-  <si>
-    <t>±$2.4210</t>
+    <t>12Mhz Crystal</t>
+  </si>
+  <si>
+    <t>12MHz SMD Crystal Resonator 20pF ±10ppm ±30ppm -40℃~+85℃ SMD3225-4P Crystals ROHS</t>
+  </si>
+  <si>
+    <t>C9002</t>
+  </si>
+  <si>
+    <t>$0.1054</t>
+  </si>
+  <si>
+    <t>±$2.4127</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1B5A-A6A6-488D-B415-41EF40D19B5A}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +859,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -876,7 +876,7 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">

--- a/Production/Microcontroller_interfacing_BOM.xlsx
+++ b/Production/Microcontroller_interfacing_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\2 Design Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\Git\eee088f-group-5\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F04B54-CFE8-4FB6-80C1-EC442DDF000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BA4E5-B538-4609-9A88-25A400C962D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>±$2.4127</t>
+  </si>
+  <si>
+    <t>C2286</t>
+  </si>
+  <si>
+    <t>Red 615~630nm 1.9~2.2V 0603 Light Emitting Diodes (LED) RoHS</t>
+  </si>
+  <si>
+    <t>$0.0032</t>
+  </si>
+  <si>
+    <t>Red LED</t>
   </si>
 </sst>
 </file>
@@ -601,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1B5A-A6A6-488D-B415-41EF40D19B5A}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,6 +909,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:F2"/>

--- a/Production/Microcontroller_interfacing_BOM.xlsx
+++ b/Production/Microcontroller_interfacing_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\Git\eee088f-group-5\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3BA4E5-B538-4609-9A88-25A400C962D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885D51F-0E6F-43AC-8341-CE379A51AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -204,6 +204,57 @@
   </si>
   <si>
     <t>Red LED</t>
+  </si>
+  <si>
+    <t>75 ohm</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>10k ohm</t>
+  </si>
+  <si>
+    <t>$0.0014</t>
+  </si>
+  <si>
+    <t>C25744</t>
+  </si>
+  <si>
+    <t>±1% 1/16W Thick Film Resistors 50V ±100ppm/℃ -55℃~+155℃ 10kΩ 0402 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>$0.0007</t>
+  </si>
+  <si>
+    <t>C23255</t>
+  </si>
+  <si>
+    <t>±1% 1/10W Thick Film Resistors 75V ±100ppm/℃ -55℃~+155℃ 82Ω 0603 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>C1562</t>
+  </si>
+  <si>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>50V 33pF C0G ±5% 0402 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+  </si>
+  <si>
+    <t>$0.0012</t>
+  </si>
+  <si>
+    <t>16V 100nF X7R ±10% 0402 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+  </si>
+  <si>
+    <t>C1525</t>
+  </si>
+  <si>
+    <t>$0.0011</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
   </si>
 </sst>
 </file>
@@ -613,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1B5A-A6A6-488D-B415-41EF40D19B5A}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -899,17 +950,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>56</v>
       </c>
@@ -921,6 +977,92 @@
       </c>
       <c r="E23" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Production/Microcontroller_interfacing_BOM.xlsx
+++ b/Production/Microcontroller_interfacing_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\Git\eee088f-group-5\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885D51F-0E6F-43AC-8341-CE379A51AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0549904-38C8-4A07-A9FB-C39A25E6A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -74,15 +74,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>$2.7128</t>
-  </si>
-  <si>
-    <t>2.5V ~ 5.5V I2C 256Kb (32K x 8) SOIC-8_150mil EEPROM ROHS</t>
-  </si>
-  <si>
-    <t>C5458</t>
-  </si>
-  <si>
     <t>Transceiver 12Mbps USB 2.0 LQFP-48_7x7x05P USB ICs ROHS</t>
   </si>
   <si>
@@ -141,18 +132,6 @@
   </si>
   <si>
     <t>$0.0749</t>
-  </si>
-  <si>
-    <t>EEPROM (alt)</t>
-  </si>
-  <si>
-    <t>2.5V ~ 5.5V I2C 2Kb (256 x 8) SOIC-8_150mil EEPROM ROHS</t>
-  </si>
-  <si>
-    <t>C7562</t>
-  </si>
-  <si>
-    <t>$0.1554</t>
   </si>
   <si>
     <t>Total anticipated</t>
@@ -666,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1B5A-A6A6-488D-B415-41EF40D19B5A}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,16 +696,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -757,16 +736,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -777,24 +756,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -807,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -827,16 +806,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -860,61 +839,29 @@
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -927,59 +874,59 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E20" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -987,19 +934,19 @@
     </row>
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1007,19 +954,19 @@
     </row>
     <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1027,19 +974,19 @@
     </row>
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1047,19 +994,19 @@
     </row>
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G27">
         <v>1</v>

--- a/Production/Microcontroller_interfacing_BOM.xlsx
+++ b/Production/Microcontroller_interfacing_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCT 2022\EEE3088F Design Principles\Task\Git\eee088f-group-5\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0549904-38C8-4A07-A9FB-C39A25E6A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3941CC4-9827-45B4-93A6-409A86317919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
+    <workbookView xWindow="14316" yWindow="1488" windowWidth="17280" windowHeight="8964" xr2:uid="{87200DD5-525B-4095-95B5-49754A1CF272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACD1B5A-A6A6-488D-B415-41EF40D19B5A}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
